--- a/Product_Backlog/Backlog.xlsx
+++ b/Product_Backlog/Backlog.xlsx
@@ -1,22 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22526"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_2881\AC\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HughHegarty\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06C7A40A-E0A9-431E-8D93-A364A1A6E142}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="1" activeTab="1" xr2:uid="{CD19BB86-1E0D-4BA0-984C-0BCDFEA68730}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="2" r:id="rId1"/>
-    <sheet name="Sprint 1 Backlog" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="47">
   <si>
     <t>ID</t>
   </si>
@@ -175,103 +173,13 @@
   </si>
   <si>
     <t>the website can access the data entries in the database</t>
-  </si>
-  <si>
-    <t>Task</t>
-  </si>
-  <si>
-    <t>Time Estimated</t>
-  </si>
-  <si>
-    <t>Time Taken</t>
-  </si>
-  <si>
-    <t>Worked on by</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a Client, I would like to be able to see facilities of the procedure on a map </t>
-  </si>
-  <si>
-    <t>Underestimated the time taken, could have been split into smaller, more manageable user stories. Encountered difficulties wih the google maps javascript API.</t>
-  </si>
-  <si>
-    <t>F.S, C.H</t>
-  </si>
-  <si>
-    <t>As a Client, I want to search for procedures based on Distance</t>
-  </si>
-  <si>
-    <t>Underestimated the time taken, required a lot of problems to be solved while merging with the map api and dynamic database entries.</t>
-  </si>
-  <si>
-    <t>N.D , F.S</t>
-  </si>
-  <si>
-    <t>As a Purchaser, I want to have the database contain data from the CMS medical Data set</t>
-  </si>
-  <si>
-    <t>Initial issues with Import manager Delayed the proccess</t>
-  </si>
-  <si>
-    <t>R.C</t>
-  </si>
-  <si>
-    <t>The database should contain queries for the different procedure searches.</t>
-  </si>
-  <si>
-    <t>No particuler issues with the creating of procedures in SQL, but took time to wait for the data to be fully added in the database. Longtitude &amp; Lattitude Data extended this to a further period of time.</t>
-  </si>
-  <si>
-    <t>N.D, R.C, H.Z</t>
-  </si>
-  <si>
-    <t>As a Client, I want to be able to enter my live location.</t>
-  </si>
-  <si>
-    <t>No issues apart from that it will only work on a secure server.</t>
-  </si>
-  <si>
-    <t>A.R, C.H</t>
-  </si>
-  <si>
-    <t>As a Client, I want to be able to enter a predetermined location.</t>
-  </si>
-  <si>
-    <t>No issues here.</t>
-  </si>
-  <si>
-    <t>A.R.</t>
-  </si>
-  <si>
-    <t>As a Client, I want to search through the available procedures.</t>
-  </si>
-  <si>
-    <t>This had to be done using a jQuery and a library called Select2, both of which we hadn't ever used before.</t>
-  </si>
-  <si>
-    <t>As a purchaser, I want the website to access the database via Java.</t>
-  </si>
-  <si>
-    <t>The connecting of the database tables was fairly straightforward but setting it up with the jsp files caused a lot of compilation erros and build path problems</t>
-  </si>
-  <si>
-    <t>N.D , H.Z</t>
-  </si>
-  <si>
-    <t>As a client, I want to access the search procedures in a clear and accessible manner.</t>
-  </si>
-  <si>
-    <t>Incomplete however much of the html and css design took into account readability and accessability which is being continuously worked on</t>
-  </si>
-  <si>
-    <t>A.R, C.H, F.S</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -280,21 +188,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -302,311 +204,18 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -620,32 +229,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E481D460-F665-4E1D-8BDF-D413845E900B}" name="Table1" displayName="Table1" ref="A1:I21" totalsRowShown="0">
-  <autoFilter ref="A1:I21" xr:uid="{418DBFEF-C1B4-49A4-88BA-FBC40919A639}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I21" totalsRowShown="0">
+  <autoFilter ref="A1:I21"/>
+  <sortState ref="A2:I20">
+    <sortCondition ref="A1:A21"/>
+  </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{F1CFD65B-524F-4090-B569-2C3A841A12CA}" name="ID"/>
-    <tableColumn id="2" xr3:uid="{7DFC7A4A-8315-442E-A6AD-6148BE1A5B1E}" name="Theme"/>
-    <tableColumn id="3" xr3:uid="{F1C9C365-4722-445F-A5BF-4ECBE4EB9B8F}" name="As a/an"/>
-    <tableColumn id="4" xr3:uid="{8DC8CB6B-2570-42DB-A6A4-8E588C0C3310}" name="I want to"/>
-    <tableColumn id="5" xr3:uid="{6ED0CAAC-B703-4190-99B3-99A48DE5E2FA}" name="so that"/>
-    <tableColumn id="6" xr3:uid="{45908F2A-CE29-4BEB-9E45-908D5FEBF282}" name="Notes"/>
-    <tableColumn id="7" xr3:uid="{536C5C3C-B1F1-482B-B51C-943FFA0120CF}" name="Priority"/>
-    <tableColumn id="8" xr3:uid="{AB4E2D5E-F5BE-4F1D-909E-A3EAEE1DD6BA}" name="Difficulty"/>
-    <tableColumn id="9" xr3:uid="{8E1986DF-9D15-4F63-8DBD-603FA78C8678}" name="Status"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8AAAA92D-F5D5-4A2A-B85A-71FACA8DE73E}" name="Table24" displayName="Table24" ref="B2:F11" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6">
-  <autoFilter ref="B2:F11" xr:uid="{64BA53A9-5164-4ADF-8E16-F61B24ECEC45}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{20F91641-AE1A-4C87-9A5B-D4A9DE3F155D}" name="Task" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{8D97B3A2-4AE4-49D7-8C67-A943AEF363A5}" name="Time Estimated" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{FF0545EF-573D-4D82-9BC9-8843A503E8A8}" name="Time Taken" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{E18B973E-F7FC-4EEE-A1A9-5938AA63FCD7}" name="Notes" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{39F744C2-9A72-4440-B9B1-DDF47B985A45}" name="Worked on by" dataDxfId="0"/>
+    <tableColumn id="1" name="ID"/>
+    <tableColumn id="2" name="Theme"/>
+    <tableColumn id="3" name="As a/an"/>
+    <tableColumn id="4" name="I want to"/>
+    <tableColumn id="5" name="so that"/>
+    <tableColumn id="6" name="Notes"/>
+    <tableColumn id="7" name="Priority"/>
+    <tableColumn id="8" name="Difficulty"/>
+    <tableColumn id="9" name="Status"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -947,12 +545,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F49D39-7D50-40E8-995F-19863C5FE00A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
@@ -964,7 +564,7 @@
     <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -993,7 +593,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1019,7 +619,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1045,7 +645,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1074,7 +674,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1100,7 +700,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1126,7 +726,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1152,7 +752,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1178,7 +778,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1204,7 +804,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1230,7 +830,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1247,7 +847,7 @@
         <v>12</v>
       </c>
       <c r="G11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -1256,7 +856,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1282,7 +882,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1308,7 +908,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1334,7 +934,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1360,7 +960,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1386,7 +986,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1403,7 +1003,7 @@
         <v>40</v>
       </c>
       <c r="G17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -1412,7 +1012,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1437,9 +1037,9 @@
       <c r="I18" t="s">
         <v>16</v>
       </c>
-      <c r="J18" s="21"/>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1464,9 +1064,9 @@
       <c r="I19" t="s">
         <v>26</v>
       </c>
-      <c r="J19" s="21"/>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1494,268 +1094,29 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB104E84-D1B4-4BB0-92D4-8F9CB88454BE}">
-  <dimension ref="A1:H25"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <cols>
-    <col min="2" max="2" width="89" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="146.140625" customWidth="1"/>
-    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="15">
-      <c r="A1" s="16"/>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-    </row>
-    <row r="2" spans="1:8" s="21" customFormat="1" ht="15">
-      <c r="A2" s="19"/>
-      <c r="B2" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="19"/>
-    </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1">
-      <c r="A3" s="16"/>
-      <c r="B3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="3">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3">
-        <v>20</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="16"/>
-    </row>
-    <row r="4" spans="1:8" ht="15">
-      <c r="A4" s="16"/>
-      <c r="B4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="4">
-        <v>6</v>
-      </c>
-      <c r="D4" s="4">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="16"/>
-    </row>
-    <row r="5" spans="1:8" ht="15">
-      <c r="A5" s="16"/>
-      <c r="B5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="6">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4">
-        <v>5</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="16"/>
-    </row>
-    <row r="6" spans="1:8" ht="30">
-      <c r="A6" s="16"/>
-      <c r="B6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="4">
-        <v>8</v>
-      </c>
-      <c r="D6" s="4">
-        <v>16</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="16"/>
-    </row>
-    <row r="7" spans="1:8" ht="15">
-      <c r="A7" s="16"/>
-      <c r="B7" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="14">
-        <v>2</v>
-      </c>
-      <c r="D7" s="14">
-        <v>2</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="17"/>
-      <c r="H7" s="16"/>
-    </row>
-    <row r="8" spans="1:8" ht="15">
-      <c r="A8" s="16"/>
-      <c r="B8" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="4">
-        <v>1</v>
-      </c>
-      <c r="D8" s="4">
-        <v>2</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="16"/>
-    </row>
-    <row r="9" spans="1:8" ht="15">
-      <c r="A9" s="16"/>
-      <c r="B9" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="14">
-        <v>2</v>
-      </c>
-      <c r="D9" s="14">
-        <v>6</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="16"/>
-    </row>
-    <row r="10" spans="1:8" ht="15">
-      <c r="A10" s="16"/>
-      <c r="B10" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" s="14">
-        <v>4</v>
-      </c>
-      <c r="D10" s="14">
-        <v>10</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="G10" s="17"/>
-      <c r="H10" s="16"/>
-    </row>
-    <row r="11" spans="1:8" ht="15">
-      <c r="A11" s="16"/>
-      <c r="B11" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="16"/>
-    </row>
-    <row r="12" spans="1:8" ht="15">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-    </row>
-    <row r="13" spans="1:8" ht="15"/>
-    <row r="14" spans="1:8" ht="15"/>
-    <row r="15" spans="1:8" ht="15"/>
-    <row r="16" spans="1:8" ht="15"/>
-    <row r="17" ht="15"/>
-    <row r="18" ht="15"/>
-    <row r="19" ht="15"/>
-    <row r="20" ht="15"/>
-    <row r="21" ht="15"/>
-    <row r="22" ht="15"/>
-    <row r="23" ht="15"/>
-    <row r="24" ht="15"/>
-    <row r="25" ht="15"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000A45299412FDFE49916D3B2BC7498215" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="528d0d9d29f55c94d322eb3857adfb37">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="7b8fda29-18fb-4238-bb7d-7bcb176bce57" xmlns:ns4="c00e3565-1744-4d61-af64-fc54f2252c20" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8027d906c71b20e95020a61b0ffa4a2b" ns3:_="" ns4:_="">
     <xsd:import namespace="7b8fda29-18fb-4238-bb7d-7bcb176bce57"/>
@@ -1946,29 +1307,38 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD3DC6FD-6E27-4089-8EC8-B7D737193740}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA8883EC-248E-4ECC-89D3-154C0362A1E8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E6119A8-CD1D-4A1F-8289-F6D1316969F5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E6119A8-CD1D-4A1F-8289-F6D1316969F5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA8883EC-248E-4ECC-89D3-154C0362A1E8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD3DC6FD-6E27-4089-8EC8-B7D737193740}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="7b8fda29-18fb-4238-bb7d-7bcb176bce57"/>
+    <ds:schemaRef ds:uri="c00e3565-1744-4d61-af64-fc54f2252c20"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Product_Backlog/Backlog.xlsx
+++ b/Product_Backlog/Backlog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="53">
   <si>
     <t>ID</t>
   </si>
@@ -173,6 +173,24 @@
   </si>
   <si>
     <t>the website can access the data entries in the database</t>
+  </si>
+  <si>
+    <t>see markers with different colours based on price</t>
+  </si>
+  <si>
+    <t>I can visually understand the price of different locations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">see a visual highlight of the corresponding facility when I click on a marker </t>
+  </si>
+  <si>
+    <t>I can read what cell in the table corresponds to the marker</t>
+  </si>
+  <si>
+    <t>Click on a facility name and have it behave like clicking a marker</t>
+  </si>
+  <si>
+    <t>I can navigate the website easier</t>
   </si>
 </sst>
 </file>
@@ -229,8 +247,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I21" totalsRowShown="0">
-  <autoFilter ref="A1:I21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I24" totalsRowShown="0">
+  <autoFilter ref="A1:I24"/>
   <sortState ref="A2:I20">
     <sortCondition ref="A1:A21"/>
   </sortState>
@@ -546,17 +564,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="60.28515625" customWidth="1"/>
+    <col min="4" max="4" width="66" customWidth="1"/>
     <col min="5" max="5" width="45.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
@@ -616,7 +634,7 @@
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -775,7 +793,7 @@
         <v>4</v>
       </c>
       <c r="I8" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -801,7 +819,7 @@
         <v>3</v>
       </c>
       <c r="I9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -827,7 +845,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -853,7 +871,7 @@
         <v>2</v>
       </c>
       <c r="I11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -879,7 +897,7 @@
         <v>3</v>
       </c>
       <c r="I12" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -957,7 +975,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -983,7 +1001,7 @@
         <v>3</v>
       </c>
       <c r="I16" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1090,6 +1108,84 @@
       </c>
       <c r="I20" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
+      <c r="H22">
+        <v>3</v>
+      </c>
+      <c r="I22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="H23">
+        <v>3</v>
+      </c>
+      <c r="I23" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1102,21 +1198,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000A45299412FDFE49916D3B2BC7498215" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="528d0d9d29f55c94d322eb3857adfb37">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="7b8fda29-18fb-4238-bb7d-7bcb176bce57" xmlns:ns4="c00e3565-1744-4d61-af64-fc54f2252c20" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8027d906c71b20e95020a61b0ffa4a2b" ns3:_="" ns4:_="">
     <xsd:import namespace="7b8fda29-18fb-4238-bb7d-7bcb176bce57"/>
@@ -1307,24 +1388,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA8883EC-248E-4ECC-89D3-154C0362A1E8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E6119A8-CD1D-4A1F-8289-F6D1316969F5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD3DC6FD-6E27-4089-8EC8-B7D737193740}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1341,4 +1420,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E6119A8-CD1D-4A1F-8289-F6D1316969F5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA8883EC-248E-4ECC-89D3-154C0362A1E8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>